--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332248.235919906</v>
+        <v>1329871.608972539</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>212.0104859966383</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>33.1854759052512</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>145.8489934020556</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>17.8805622902187</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>227.7569603098104</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>68.21954739178611</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.61892619071929</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>243.1374135427323</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>203.7892779811735</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>232.4107563404794</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269624</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705009</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>239.3135884893127</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542897</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>123.9815576456762</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890389</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>2.607010073152018</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,16 +2056,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>220.864501724972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>121.6761271205435</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>151.8518831495024</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2609,10 +2609,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>254.8398652981176</v>
       </c>
       <c r="X31" t="n">
-        <v>142.6584215897762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3083,10 +3083,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>56.04917322725558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>40.3626499519043</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>72.26558381699921</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.41782514684017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>221.4418477627494</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472.3398332255023</v>
+        <v>1158.463096854644</v>
       </c>
       <c r="C2" t="n">
-        <v>103.3773162850906</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D2" t="n">
-        <v>103.3773162850906</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>103.3773162850906</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>96.43181553588714</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>84.76746930058007</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>84.76746930058007</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1249.079005265436</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y2" t="n">
-        <v>858.9396732896241</v>
+        <v>1545.062936918766</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.7172435647353</v>
+        <v>643.4886826182743</v>
       </c>
       <c r="C4" t="n">
-        <v>620.7172435647353</v>
+        <v>643.4886826182743</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>493.3720432059386</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>345.4589496235454</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.5690021256351</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4519,19 +4519,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>841.5098227082655</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X4" t="n">
-        <v>841.5098227082655</v>
+        <v>825.137147448514</v>
       </c>
       <c r="Y4" t="n">
-        <v>620.7172435647353</v>
+        <v>825.137147448514</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.498902304191</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>1806.776971395622</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570292</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570292</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>651.7371154010195</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,16 +4565,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2493.430694671079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2284.685053276903</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2031.103992541083</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2031.103992541083</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2031.103992541083</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.638234280003</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.498902304191</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4647,22 +4647,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380228</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694945</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.9516006271326</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>498.0154176992257</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,16 +4723,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1593.396699679831</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1370.418218874567</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1370.418218874567</v>
+        <v>1390.852773061637</v>
       </c>
       <c r="V7" t="n">
-        <v>1115.73373066868</v>
+        <v>1136.16828485575</v>
       </c>
       <c r="W7" t="n">
-        <v>1115.73373066868</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="X7" t="n">
-        <v>887.7441797706628</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.9516006271326</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099144</v>
+        <v>824.6074030911695</v>
       </c>
       <c r="C8" t="n">
-        <v>1412.134398099144</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="D8" t="n">
-        <v>1053.868699492394</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>668.0804468941496</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>257.0945421045421</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816087</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740842</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723853</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400158</v>
+        <v>2327.580988662297</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400158</v>
+        <v>2327.580988662297</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400158</v>
+        <v>1974.812333392183</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139078</v>
+        <v>1601.346575131103</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163266</v>
+        <v>1211.207243155291</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,31 +4878,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370163</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143477</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458197</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.17055110504</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701985</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676481</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885493</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606424</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.7159595531221</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020478</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999036</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171025</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.751114818789</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400695</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400695</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138394</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703092</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6218,46 +6218,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
         <v>407.9027098310023</v>
@@ -6373,13 +6373,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,13 +6482,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.085317957303</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,19 +6719,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6835,25 +6835,25 @@
         <v>762.5477693179085</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6932,16 +6932,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1753.782446406721</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780619</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.63391537253611</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>4.845153664065123</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>58.15585306139384</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>31.68313303847341</v>
       </c>
       <c r="X31" t="n">
-        <v>83.05123379926093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24971,10 +24971,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>111.1976478713723</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>105.0583980710269</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>142.4141550350967</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>64.74262662649471</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>958647.6759253589</v>
+        <v>958647.675925359</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140037</v>
@@ -26326,10 +26326,10 @@
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140037</v>
@@ -26338,19 +26338,19 @@
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="L2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140038</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.660247097694083e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245451</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
-      <c r="C4" t="n">
-        <v>134318.0002618637</v>
-      </c>
       <c r="D4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26436,10 +26436,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731986</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26454,10 +26454,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849382.4943590581</v>
+        <v>-849382.494359058</v>
       </c>
       <c r="C6" t="n">
-        <v>265369.2892168615</v>
+        <v>265369.2892168616</v>
       </c>
       <c r="D6" t="n">
-        <v>265369.2892168609</v>
+        <v>265369.2892168616</v>
       </c>
       <c r="E6" t="n">
-        <v>-132437.3240611806</v>
+        <v>-132472.061986617</v>
       </c>
       <c r="F6" t="n">
-        <v>375048.1175633644</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="G6" t="n">
-        <v>375048.1175633645</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="H6" t="n">
-        <v>375048.1175633646</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="I6" t="n">
-        <v>375048.1175633646</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="J6" t="n">
-        <v>207442.939753382</v>
+        <v>207408.2018279462</v>
       </c>
       <c r="K6" t="n">
-        <v>375048.1175633645</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="L6" t="n">
-        <v>375048.1175633646</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="M6" t="n">
-        <v>242440.823834438</v>
+        <v>242406.0859090021</v>
       </c>
       <c r="N6" t="n">
-        <v>375048.1175633645</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="O6" t="n">
-        <v>375048.1175633645</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="P6" t="n">
-        <v>375048.1175633645</v>
+        <v>375013.3796379288</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175398</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224134</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>153.2624057743692</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>32.52443676721926</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.45760664274854</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>268.6424360463723</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>183.7907424631436</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>55.23266800700824</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>152.0435341710182</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>43.08974057846831</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>207.7584247917805</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247038</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>18.63449378798259</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,10 +28065,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>46.91356563188788</v>
       </c>
       <c r="V10" t="n">
-        <v>201.156895198399</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181062</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336181</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491902</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857146</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767384</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730009</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190648</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147054</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745103</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744849</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380022</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436499</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177247</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040591</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762075</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378628</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168763</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000178</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68437931365458</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335774</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759591</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069566</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024991</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,7 +32084,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744729</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,28 +32549,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893642</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313199</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457281</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637953</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939918</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313264</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215469</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378505</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820408</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928742</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961233</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235325</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667038</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977101</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870601</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423492</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831071</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805412</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,7 +35732,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524547</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
